--- a/src/private/templates/suppliers.xlsx
+++ b/src/private/templates/suppliers.xlsx
@@ -29,9 +29,6 @@
     <t>Supplier name</t>
   </si>
   <si>
-    <t>SAP number</t>
-  </si>
-  <si>
     <t>Registration</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Export profile</t>
+  </si>
+  <si>
+    <t>Vendor number</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="244" zoomScaleNormal="244" zoomScalePageLayoutView="244" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="244" zoomScaleNormal="244" zoomScalePageLayoutView="244" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -395,40 +397,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/private/templates/suppliers.xlsx
+++ b/src/private/templates/suppliers.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/batamarbattulga/Documents/works/ot/backend/src/private/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/works/ot-backend/src/private/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Supplier name</t>
   </si>
   <si>
-    <t>Registration</t>
-  </si>
-  <si>
     <t>Prequalificatio status</t>
   </si>
   <si>
@@ -44,12 +41,6 @@
     <t>Due diligence</t>
   </si>
   <si>
-    <t>DIPOT score</t>
-  </si>
-  <si>
-    <t>Blocking</t>
-  </si>
-  <si>
     <t>Email address</t>
   </si>
   <si>
@@ -59,10 +50,22 @@
     <t>Phone number</t>
   </si>
   <si>
-    <t>Export profile</t>
-  </si>
-  <si>
     <t>Vendor number</t>
+  </si>
+  <si>
+    <t>Tier type</t>
+  </si>
+  <si>
+    <t>Sales revenue</t>
+  </si>
+  <si>
+    <t>Block status</t>
+  </si>
+  <si>
+    <t>Difot score</t>
+  </si>
+  <si>
+    <t>Owner</t>
   </si>
 </sst>
 </file>
@@ -377,60 +380,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="244" zoomScaleNormal="244" zoomScalePageLayoutView="244" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="244" zoomScaleNormal="244" zoomScalePageLayoutView="244" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="2" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
